--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71214.20699599112</v>
+        <v>13779435.00924131</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71214.20699599112</v>
+        <v>13779435.00924131</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245119.8959069623</v>
+        <v>28565638.22493511</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245119.8959069623</v>
+        <v>28565638.22493511</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1604897357.410465</v>
+        <v>29690429.34657387</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19366.06193650065</v>
+        <v>759882.5153601922</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37582.40116150741</v>
+        <v>1350242.790384179</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55945.48187572775</v>
+        <v>1940603.065408167</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73842.02658799174</v>
+        <v>2528412.301873931</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>91715.00200678517</v>
+        <v>3118749.592418613</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>109589.4896334064</v>
+        <v>3709975.193350854</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>127533.4970702254</v>
+        <v>4416349.094848547</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>145346.8378403777</v>
+        <v>5096720.329679573</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163254.4487205067</v>
+        <v>5524019.245353204</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181495.2621098009</v>
+        <v>6008216.63305897</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>199736.0754990953</v>
+        <v>6492414.020764736</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217976.8888883895</v>
+        <v>6976611.408470503</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>236217.702277684</v>
+        <v>7460808.796176264</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256069.051600374</v>
+        <v>7760759.377936023</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275673.6703081144</v>
+        <v>7936372.712515982</v>
       </c>
     </row>
   </sheetData>
